--- a/notebooks/inputFiles.xlsx
+++ b/notebooks/inputFiles.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MBU-Drive/DataScience/notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximilianbundscherer/Documents/Sync/masterarbeit/notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8973B512-90A0-0545-BCA3-6041410F33DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D603A88-80DB-E249-BACB-954522567074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20220" xr2:uid="{4D9A1D92-6A6C-0A4A-9C79-9E6665F11E5D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20080" xr2:uid="{4D9A1D92-6A6C-0A4A-9C79-9E6665F11E5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -691,51 +691,56 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1">
-        <v>9874390332</v>
+        <v>9717909816</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>10034163583</v>
+        <v>9808932799</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>9808932799</v>
+        <v>10034163583</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -866,16 +871,16 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>9717909816</v>
+        <v>9874390332</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
